--- a/Code/Results/Cases/Case_0_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>8.146631566234699</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6.607392996363943</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>34.18043004853008</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>47.02874112983637</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.833845443161024</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>104.3577802956298</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,120 +456,1092 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>37.72619643704465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>7.421327263115129</v>
+      </c>
+      <c r="D3">
+        <v>5.577080074954062</v>
+      </c>
+      <c r="E3">
+        <v>30.88423288801351</v>
+      </c>
+      <c r="F3">
+        <v>41.26221966158808</v>
+      </c>
+      <c r="G3">
+        <v>1.87649887342375</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>95.93736092665065</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>32.95774070314212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>6.979959271060589</v>
+      </c>
+      <c r="D4">
+        <v>4.989904122011929</v>
+      </c>
+      <c r="E4">
+        <v>28.91963807615869</v>
+      </c>
+      <c r="F4">
+        <v>37.94268293664193</v>
+      </c>
+      <c r="G4">
+        <v>1.901048618192797</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>90.71508433157433</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>30.21246566503659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>6.799624520651787</v>
+      </c>
+      <c r="D5">
+        <v>4.758338755102093</v>
+      </c>
+      <c r="E5">
+        <v>28.1246869556497</v>
+      </c>
+      <c r="F5">
+        <v>36.62832367054032</v>
+      </c>
+      <c r="G5">
+        <v>1.91078372172127</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>88.56107509265033</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>29.12508595049712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>6.769618058679574</v>
+      </c>
+      <c r="D6">
+        <v>4.720270097063932</v>
+      </c>
+      <c r="E6">
+        <v>27.99282004118072</v>
+      </c>
+      <c r="F6">
+        <v>36.41201740800324</v>
+      </c>
+      <c r="G6">
+        <v>1.912387201018657</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>88.20154719764628</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>28.94610092844368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>6.977530695925379</v>
+      </c>
+      <c r="D7">
+        <v>4.986753825339852</v>
+      </c>
+      <c r="E7">
+        <v>28.90890395083619</v>
+      </c>
+      <c r="F7">
+        <v>37.92481935519994</v>
+      </c>
+      <c r="G7">
+        <v>1.901180847596261</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>90.68615312254225</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>30.19768902608428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>7.894633705870007</v>
+      </c>
+      <c r="D8">
+        <v>6.239945034592099</v>
+      </c>
+      <c r="E8">
+        <v>33.02464681348243</v>
+      </c>
+      <c r="F8">
+        <v>44.98152974281324</v>
+      </c>
+      <c r="G8">
+        <v>1.848998978665436</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>101.4558382344199</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>36.03315845602496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>9.851607376822772</v>
+      </c>
+      <c r="D9">
+        <v>9.385117690008784</v>
+      </c>
+      <c r="E9">
+        <v>42.40681240011344</v>
+      </c>
+      <c r="F9">
+        <v>62.13715655965893</v>
+      </c>
+      <c r="G9">
+        <v>1.721143909885395</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>123.2449000181043</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>50.23941299183024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D10">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E10">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F10">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G10">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>71.99261122564779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D11">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E11">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F11">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G11">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>71.99261122564779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D12">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E12">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F12">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G12">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>71.99261122564779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D13">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E13">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F13">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G13">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>71.99261122564779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D14">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E14">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F14">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G14">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>71.99261122564779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D15">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E15">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F15">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G15">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>71.99261122564779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D16">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E16">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F16">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G16">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>71.99261122564779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D17">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E17">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F17">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G17">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>71.99261122564779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D18">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E18">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F18">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G18">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>71.99261122564779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D19">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E19">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F19">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G19">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>71.99261122564779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D20">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E20">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F20">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G20">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>71.99261122564779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D21">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E21">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F21">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G21">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>71.99261122564779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D22">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E22">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F22">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G22">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>71.99261122564779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D23">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E23">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F23">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G23">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>71.99261122564779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D24">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E24">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F24">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G24">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>71.99261122564779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>12.27928806163982</v>
+      </c>
+      <c r="D25">
+        <v>14.50827598609083</v>
+      </c>
+      <c r="E25">
+        <v>56.88090967856753</v>
+      </c>
+      <c r="F25">
+        <v>88.23741895112217</v>
+      </c>
+      <c r="G25">
+        <v>1.521265058259568</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>147.0801893427097</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>71.99261122564779</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.146631566234699</v>
+        <v>5.357080521938432</v>
       </c>
       <c r="D2">
-        <v>6.607392996363943</v>
+        <v>4.99628849757148</v>
       </c>
       <c r="E2">
-        <v>34.18043004853008</v>
+        <v>80.33083824429247</v>
       </c>
       <c r="F2">
-        <v>47.02874112983637</v>
+        <v>16.4471559812765</v>
       </c>
       <c r="G2">
-        <v>1.833845443161024</v>
+        <v>23.49636613946361</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.545766105569237</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.67724386699011</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>104.3577802956298</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>107.5995396806108</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>37.72619643704465</v>
+        <v>12.73815547923471</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.421327263115129</v>
+        <v>5.002331316174413</v>
       </c>
       <c r="D3">
-        <v>5.577080074954062</v>
+        <v>4.63753948530973</v>
       </c>
       <c r="E3">
-        <v>30.88423288801351</v>
+        <v>72.21692871667405</v>
       </c>
       <c r="F3">
-        <v>41.26221966158808</v>
+        <v>14.35850918314267</v>
       </c>
       <c r="G3">
-        <v>1.87649887342375</v>
+        <v>20.07570573266268</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.717986324291189</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11.06302283265764</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>95.93736092665065</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>97.6052821046534</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>32.95774070314212</v>
+        <v>10.94908325181163</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.979959271060589</v>
+        <v>4.778314771608684</v>
       </c>
       <c r="D4">
-        <v>4.989904122011929</v>
+        <v>4.421370022301548</v>
       </c>
       <c r="E4">
-        <v>28.91963807615869</v>
+        <v>67.57231410401874</v>
       </c>
       <c r="F4">
-        <v>37.94268293664193</v>
+        <v>13.17446494843577</v>
       </c>
       <c r="G4">
-        <v>1.901048618192797</v>
+        <v>18.16026039236233</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.259711206553405</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>10.14170690843584</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>90.71508433157433</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>91.74827118172054</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>30.21246566503659</v>
+        <v>9.939745102477708</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.799624520651787</v>
+        <v>4.684993404208808</v>
       </c>
       <c r="D5">
-        <v>4.758338755102093</v>
+        <v>4.333067568686823</v>
       </c>
       <c r="E5">
-        <v>28.1246869556497</v>
+        <v>65.71774306923133</v>
       </c>
       <c r="F5">
-        <v>36.62832367054032</v>
+        <v>12.70709740478325</v>
       </c>
       <c r="G5">
-        <v>1.91078372172127</v>
+        <v>17.40878244844021</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.135230758352733</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>9.776121764065378</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>88.56107509265033</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>89.38509510399474</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>29.12508595049712</v>
+        <v>9.541690622819154</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.769618058679574</v>
+        <v>4.669366101935244</v>
       </c>
       <c r="D6">
-        <v>4.720270097063932</v>
+        <v>4.318368973052806</v>
       </c>
       <c r="E6">
-        <v>27.99282004118072</v>
+        <v>65.41119999335613</v>
       </c>
       <c r="F6">
-        <v>36.41201740800324</v>
+        <v>12.63022493232966</v>
       </c>
       <c r="G6">
-        <v>1.912387201018657</v>
+        <v>17.28542922723618</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.138167830905306</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>9.715863605155201</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>88.20154719764628</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>88.9932124994636</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.94610092844368</v>
+        <v>9.476219093964636</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.977530695925379</v>
+        <v>4.777064851299933</v>
       </c>
       <c r="D7">
-        <v>4.986753825339852</v>
+        <v>4.420181115746303</v>
       </c>
       <c r="E7">
-        <v>28.90890395083619</v>
+        <v>67.54719104240367</v>
       </c>
       <c r="F7">
-        <v>37.92481935519994</v>
+        <v>13.1681092303266</v>
       </c>
       <c r="G7">
-        <v>1.901180847596261</v>
+        <v>18.15002363528989</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.257275631043807</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10.13674366529191</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>90.68615312254225</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>91.71634809832342</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>30.19768902608428</v>
+        <v>9.934331505793644</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.894633705870007</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D8">
-        <v>6.239945034592099</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E8">
-        <v>33.02464681348243</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F8">
-        <v>44.98152974281324</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G8">
-        <v>1.848998978665436</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>101.4558382344199</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>36.03315845602496</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.851607376822772</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D9">
-        <v>9.385117690008784</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E9">
-        <v>42.40681240011344</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F9">
-        <v>62.13715655965893</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G9">
-        <v>1.721143909885395</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>123.2449000181043</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>50.23941299183024</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D10">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E10">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F10">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G10">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D11">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E11">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F11">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G11">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D12">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E12">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F12">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G12">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D13">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E13">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F13">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G13">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D14">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E14">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F14">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G14">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D15">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E15">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F15">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G15">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D16">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E16">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F16">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G16">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D17">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E17">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F17">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G17">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D18">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E18">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F18">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G18">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D19">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E19">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F19">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G19">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D20">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E20">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F20">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G20">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D21">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E21">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F21">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G21">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D22">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E22">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F22">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G22">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D23">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E23">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F23">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G23">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D24">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E24">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F24">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G24">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.27928806163982</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D25">
-        <v>14.50827598609083</v>
+        <v>4.870673917645535</v>
       </c>
       <c r="E25">
-        <v>56.88090967856753</v>
+        <v>77.42369892239435</v>
       </c>
       <c r="F25">
-        <v>88.23741895112217</v>
+        <v>15.69840472073528</v>
       </c>
       <c r="G25">
-        <v>1.521265058259568</v>
+        <v>22.26375059288155</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.246384255729775</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12.09969384390976</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>147.0801893427097</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>104.0562863596363</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>71.99261122564779</v>
+        <v>12.09505323311648</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.357080521938432</v>
+        <v>3.905473712059812</v>
       </c>
       <c r="D2">
-        <v>4.99628849757148</v>
+        <v>3.905448924006797</v>
       </c>
       <c r="E2">
-        <v>80.33083824429247</v>
+        <v>40.45309662546128</v>
       </c>
       <c r="F2">
-        <v>16.4471559812765</v>
+        <v>14.52525452576912</v>
       </c>
       <c r="G2">
-        <v>23.49636613946361</v>
+        <v>12.44752704532048</v>
       </c>
       <c r="H2">
-        <v>5.545766105569237</v>
+        <v>9.904720290307917</v>
       </c>
       <c r="I2">
-        <v>12.67724386699011</v>
+        <v>12.75548454980884</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>107.5995396806108</v>
+        <v>57.84003720018883</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.73815547923471</v>
+        <v>12.85841554470193</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.002331316174413</v>
+        <v>3.764852942667885</v>
       </c>
       <c r="D3">
-        <v>4.63753948530973</v>
+        <v>3.789696546714558</v>
       </c>
       <c r="E3">
-        <v>72.21692871667405</v>
+        <v>37.73119929783729</v>
       </c>
       <c r="F3">
-        <v>14.35850918314267</v>
+        <v>14.68125214438379</v>
       </c>
       <c r="G3">
-        <v>20.07570573266268</v>
+        <v>12.59179241730543</v>
       </c>
       <c r="H3">
-        <v>4.717986324291189</v>
+        <v>10.03823297957386</v>
       </c>
       <c r="I3">
-        <v>11.06302283265764</v>
+        <v>12.92677391096765</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>97.6052821046534</v>
+        <v>54.2573156657387</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.94908325181163</v>
+        <v>13.08605440471323</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.778314771608684</v>
+        <v>3.675661770934629</v>
       </c>
       <c r="D4">
-        <v>4.421370022301548</v>
+        <v>3.716366721210528</v>
       </c>
       <c r="E4">
-        <v>67.57231410401874</v>
+        <v>35.95960951284731</v>
       </c>
       <c r="F4">
-        <v>13.17446494843577</v>
+        <v>14.79136246438105</v>
       </c>
       <c r="G4">
-        <v>18.16026039236233</v>
+        <v>12.70999339414944</v>
       </c>
       <c r="H4">
-        <v>4.259711206553405</v>
+        <v>10.12447106022344</v>
       </c>
       <c r="I4">
-        <v>10.14170690843584</v>
+        <v>13.04144779435948</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>91.74827118172054</v>
+        <v>51.92864706475579</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9.939745102477708</v>
+        <v>13.23583110130845</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.684993404208808</v>
+        <v>3.638645574814985</v>
       </c>
       <c r="D5">
-        <v>4.333067568686823</v>
+        <v>3.685946401379057</v>
       </c>
       <c r="E5">
-        <v>65.71774306923133</v>
+        <v>35.21230098746195</v>
       </c>
       <c r="F5">
-        <v>12.70709740478325</v>
+        <v>14.83971593511907</v>
       </c>
       <c r="G5">
-        <v>17.40878244844021</v>
+        <v>12.7652083651362</v>
       </c>
       <c r="H5">
-        <v>4.135230758352733</v>
+        <v>10.16067609924295</v>
       </c>
       <c r="I5">
-        <v>9.776121764065378</v>
+        <v>13.09050458425047</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>89.38509510399474</v>
+        <v>50.94729169483841</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.541690622819154</v>
+        <v>13.29931705816873</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.669366101935244</v>
+        <v>3.632460054008028</v>
       </c>
       <c r="D6">
-        <v>4.318368973052806</v>
+        <v>3.680863576838231</v>
       </c>
       <c r="E6">
-        <v>65.41119999335613</v>
+        <v>35.08667465392342</v>
       </c>
       <c r="F6">
-        <v>12.63022493232966</v>
+        <v>14.84795185878711</v>
       </c>
       <c r="G6">
-        <v>17.28542922723618</v>
+        <v>12.77479052390807</v>
       </c>
       <c r="H6">
-        <v>4.138167830905306</v>
+        <v>10.16675182533773</v>
       </c>
       <c r="I6">
-        <v>9.715863605155201</v>
+        <v>13.09878913471534</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>88.9932124994636</v>
+        <v>50.78238217002004</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>9.476219093964636</v>
+        <v>13.31000504363131</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.777064851299933</v>
+        <v>3.675165205415698</v>
       </c>
       <c r="D7">
-        <v>4.420181115746303</v>
+        <v>3.715958598189972</v>
       </c>
       <c r="E7">
-        <v>67.54719104240367</v>
+        <v>35.94963395749275</v>
       </c>
       <c r="F7">
-        <v>13.1681092303266</v>
+        <v>14.7920006324524</v>
       </c>
       <c r="G7">
-        <v>18.15002363528989</v>
+        <v>12.71071004502947</v>
       </c>
       <c r="H7">
-        <v>4.257275631043807</v>
+        <v>10.12495504428802</v>
       </c>
       <c r="I7">
-        <v>10.13674366529191</v>
+        <v>13.04210005376081</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>91.71634809832342</v>
+        <v>51.91554333318729</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9.934331505793644</v>
+        <v>13.23667745527838</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.23563647422077</v>
+        <v>3.857605329587284</v>
       </c>
       <c r="D8">
-        <v>4.870673917645535</v>
+        <v>3.866023003388952</v>
       </c>
       <c r="E8">
-        <v>77.42369892239435</v>
+        <v>39.53532264187566</v>
       </c>
       <c r="F8">
-        <v>15.69840472073528</v>
+        <v>14.57599619573893</v>
       </c>
       <c r="G8">
-        <v>22.26375059288155</v>
+        <v>12.4908836634861</v>
       </c>
       <c r="H8">
-        <v>5.246384255729775</v>
+        <v>9.949865519351617</v>
       </c>
       <c r="I8">
-        <v>12.09969384390976</v>
+        <v>12.81253439787743</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>104.0562863596363</v>
+        <v>56.63144614659222</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.09505323311648</v>
+        <v>12.93478823267061</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.23563647422077</v>
+        <v>4.190980020149619</v>
       </c>
       <c r="D9">
-        <v>4.870673917645535</v>
+        <v>4.141227629073909</v>
       </c>
       <c r="E9">
-        <v>77.42369892239435</v>
+        <v>45.77755605998806</v>
       </c>
       <c r="F9">
-        <v>15.69840472073528</v>
+        <v>14.27152322778262</v>
       </c>
       <c r="G9">
-        <v>22.26375059288155</v>
+        <v>12.31191213287756</v>
       </c>
       <c r="H9">
-        <v>5.246384255729775</v>
+        <v>9.64075606805998</v>
       </c>
       <c r="I9">
-        <v>12.09969384390976</v>
+        <v>12.44069930196613</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>104.0562863596363</v>
+        <v>64.85909885559037</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.09505323311648</v>
+        <v>12.4253217240489</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.23563647422077</v>
+        <v>4.41899598454978</v>
       </c>
       <c r="D10">
-        <v>4.870673917645535</v>
+        <v>4.330444601490361</v>
       </c>
       <c r="E10">
-        <v>77.42369892239435</v>
+        <v>49.89247115506764</v>
       </c>
       <c r="F10">
-        <v>15.69840472073528</v>
+        <v>14.12791004217895</v>
       </c>
       <c r="G10">
-        <v>22.26375059288155</v>
+        <v>12.35524804906226</v>
       </c>
       <c r="H10">
-        <v>5.246384255729775</v>
+        <v>9.435171739880143</v>
       </c>
       <c r="I10">
-        <v>12.09969384390976</v>
+        <v>12.21952533631949</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>104.0562863596363</v>
+        <v>70.28760507029757</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.09505323311648</v>
+        <v>12.10603144985317</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.23563647422077</v>
+        <v>4.51870931586717</v>
       </c>
       <c r="D11">
-        <v>4.870673917645535</v>
+        <v>4.413475864618293</v>
       </c>
       <c r="E11">
-        <v>77.42369892239435</v>
+        <v>51.66438077649066</v>
       </c>
       <c r="F11">
-        <v>15.69840472073528</v>
+        <v>14.08156126745253</v>
       </c>
       <c r="G11">
-        <v>22.26375059288155</v>
+        <v>12.41657632554686</v>
       </c>
       <c r="H11">
-        <v>5.246384255729775</v>
+        <v>9.346477326387436</v>
       </c>
       <c r="I11">
-        <v>12.09969384390976</v>
+        <v>12.13118059189596</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>104.0562863596363</v>
+        <v>72.62507423863961</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.09505323311648</v>
+        <v>11.97386099466021</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.23563647422077</v>
+        <v>4.555867656098341</v>
       </c>
       <c r="D12">
-        <v>4.870673917645535</v>
+        <v>4.444463868016824</v>
       </c>
       <c r="E12">
-        <v>77.42369892239435</v>
+        <v>52.32116809572973</v>
       </c>
       <c r="F12">
-        <v>15.69840472073528</v>
+        <v>14.06686877974704</v>
       </c>
       <c r="G12">
-        <v>22.26375059288155</v>
+        <v>12.4460078160457</v>
       </c>
       <c r="H12">
-        <v>5.246384255729775</v>
+        <v>9.313600211445939</v>
       </c>
       <c r="I12">
-        <v>12.09969384390976</v>
+        <v>12.0995762663881</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>104.0562863596363</v>
+        <v>73.49139680176123</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.09505323311648</v>
+        <v>11.92579554081342</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.23563647422077</v>
+        <v>4.547892014516262</v>
       </c>
       <c r="D13">
-        <v>4.870673917645535</v>
+        <v>4.437810480342423</v>
       </c>
       <c r="E13">
-        <v>77.42369892239435</v>
+        <v>52.18034563227636</v>
       </c>
       <c r="F13">
-        <v>15.69840472073528</v>
+        <v>14.06990389740248</v>
       </c>
       <c r="G13">
-        <v>22.26375059288155</v>
+        <v>12.43939024195762</v>
       </c>
       <c r="H13">
-        <v>5.246384255729775</v>
+        <v>9.320649069117092</v>
       </c>
       <c r="I13">
-        <v>12.09969384390976</v>
+        <v>12.10629914842097</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>104.0562863596363</v>
+        <v>73.30565342710575</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.09505323311648</v>
+        <v>11.93605728872384</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.23563647422077</v>
+        <v>4.521778523543456</v>
       </c>
       <c r="D14">
-        <v>4.870673917645535</v>
+        <v>4.416034453183623</v>
       </c>
       <c r="E14">
-        <v>77.42369892239435</v>
+        <v>51.71869852158455</v>
       </c>
       <c r="F14">
-        <v>15.69840472073528</v>
+        <v>14.08029448310079</v>
       </c>
       <c r="G14">
-        <v>22.26375059288155</v>
+        <v>12.41887220335339</v>
       </c>
       <c r="H14">
-        <v>5.246384255729775</v>
+        <v>9.343758192904097</v>
       </c>
       <c r="I14">
-        <v>12.09969384390976</v>
+        <v>12.12854290741399</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>104.0562863596363</v>
+        <v>72.69672348813351</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.09505323311648</v>
+        <v>11.9698662218742</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.23563647422077</v>
+        <v>4.505704344592509</v>
       </c>
       <c r="D15">
-        <v>4.870673917645535</v>
+        <v>4.402636420840919</v>
       </c>
       <c r="E15">
-        <v>77.42369892239435</v>
+        <v>51.43408303023234</v>
       </c>
       <c r="F15">
-        <v>15.69840472073528</v>
+        <v>14.08703510354367</v>
       </c>
       <c r="G15">
-        <v>22.26375059288155</v>
+        <v>12.40711830762945</v>
       </c>
       <c r="H15">
-        <v>5.246384255729775</v>
+        <v>9.358006082369526</v>
       </c>
       <c r="I15">
-        <v>12.09969384390976</v>
+        <v>12.14241136514456</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>104.0562863596363</v>
+        <v>72.32128940852843</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.09505323311648</v>
+        <v>11.99083684991599</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.23563647422077</v>
+        <v>4.412396617106815</v>
       </c>
       <c r="D16">
-        <v>4.870673917645535</v>
+        <v>4.32495559999153</v>
       </c>
       <c r="E16">
-        <v>77.42369892239435</v>
+        <v>49.77467610133067</v>
       </c>
       <c r="F16">
-        <v>15.69840472073528</v>
+        <v>14.13133211169708</v>
       </c>
       <c r="G16">
-        <v>22.26375059288155</v>
+        <v>12.3520980445059</v>
       </c>
       <c r="H16">
-        <v>5.246384255729775</v>
+        <v>9.441066546272076</v>
       </c>
       <c r="I16">
-        <v>12.09969384390976</v>
+        <v>12.22555299869022</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>104.0562863596363</v>
+        <v>70.13220277448985</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.09505323311648</v>
+        <v>12.11494097180642</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.23563647422077</v>
+        <v>4.354109525255939</v>
       </c>
       <c r="D17">
-        <v>4.870673917645535</v>
+        <v>4.276508791304942</v>
       </c>
       <c r="E17">
-        <v>77.42369892239435</v>
+        <v>48.73120218939457</v>
       </c>
       <c r="F17">
-        <v>15.69840472073528</v>
+        <v>14.16346129986302</v>
       </c>
       <c r="G17">
-        <v>22.26375059288155</v>
+        <v>12.32918218982192</v>
       </c>
       <c r="H17">
-        <v>5.246384255729775</v>
+        <v>9.493268293644826</v>
       </c>
       <c r="I17">
-        <v>12.09969384390976</v>
+        <v>12.27975988890409</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>104.0562863596363</v>
+        <v>68.75556782396845</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.09505323311648</v>
+        <v>12.1944958249117</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.23563647422077</v>
+        <v>4.320207874811309</v>
       </c>
       <c r="D18">
-        <v>4.870673917645535</v>
+        <v>4.248357729307262</v>
       </c>
       <c r="E18">
-        <v>77.42369892239435</v>
+        <v>48.12160123404342</v>
       </c>
       <c r="F18">
-        <v>15.69840472073528</v>
+        <v>14.18372019023938</v>
       </c>
       <c r="G18">
-        <v>22.26375059288155</v>
+        <v>12.31990890362691</v>
       </c>
       <c r="H18">
-        <v>5.246384255729775</v>
+        <v>9.523746689031791</v>
       </c>
       <c r="I18">
-        <v>12.09969384390976</v>
+        <v>12.31208768271913</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>104.0562863596363</v>
+        <v>67.95133038828438</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.09505323311648</v>
+        <v>12.24147778449519</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.23563647422077</v>
+        <v>4.308665489950588</v>
       </c>
       <c r="D19">
-        <v>4.870673917645535</v>
+        <v>4.238777723879632</v>
       </c>
       <c r="E19">
-        <v>77.42369892239435</v>
+        <v>47.91357709163687</v>
       </c>
       <c r="F19">
-        <v>15.69840472073528</v>
+        <v>14.19088107194834</v>
       </c>
       <c r="G19">
-        <v>22.26375059288155</v>
+        <v>12.31743237472913</v>
       </c>
       <c r="H19">
-        <v>5.246384255729775</v>
+        <v>9.534143562052993</v>
       </c>
       <c r="I19">
-        <v>12.09969384390976</v>
+        <v>12.32322817431193</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>104.0562863596363</v>
+        <v>67.67688957482844</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.09505323311648</v>
+        <v>12.25759225557313</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.23563647422077</v>
+        <v>4.360353432289657</v>
       </c>
       <c r="D20">
-        <v>4.870673917645535</v>
+        <v>4.281695735475675</v>
       </c>
       <c r="E20">
-        <v>77.42369892239435</v>
+        <v>48.84325565085075</v>
       </c>
       <c r="F20">
-        <v>15.69840472073528</v>
+        <v>14.15985602511353</v>
       </c>
       <c r="G20">
-        <v>22.26375059288155</v>
+        <v>12.33121540951811</v>
       </c>
       <c r="H20">
-        <v>5.246384255729775</v>
+        <v>9.487664303090478</v>
       </c>
       <c r="I20">
-        <v>12.09969384390976</v>
+        <v>12.27386990125632</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>104.0562863596363</v>
+        <v>68.90339872085933</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.09505323311648</v>
+        <v>12.18589965248264</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.23563647422077</v>
+        <v>4.529465171961054</v>
       </c>
       <c r="D21">
-        <v>4.870673917645535</v>
+        <v>4.422443044012199</v>
       </c>
       <c r="E21">
-        <v>77.42369892239435</v>
+        <v>51.85467927975165</v>
       </c>
       <c r="F21">
-        <v>15.69840472073528</v>
+        <v>14.07716391364231</v>
       </c>
       <c r="G21">
-        <v>22.26375059288155</v>
+        <v>12.42472890355965</v>
       </c>
       <c r="H21">
-        <v>5.246384255729775</v>
+        <v>9.336951096657323</v>
       </c>
       <c r="I21">
-        <v>12.09969384390976</v>
+        <v>12.12195847078695</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>104.0562863596363</v>
+        <v>72.876090609252</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.09505323311648</v>
+        <v>11.95988098805931</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.23563647422077</v>
+        <v>4.636478012592539</v>
       </c>
       <c r="D22">
-        <v>4.870673917645535</v>
+        <v>4.511776532061114</v>
       </c>
       <c r="E22">
-        <v>77.42369892239435</v>
+        <v>53.7401595660595</v>
       </c>
       <c r="F22">
-        <v>15.69840472073528</v>
+        <v>14.0398407229994</v>
       </c>
       <c r="G22">
-        <v>22.26375059288155</v>
+        <v>12.52208696136718</v>
       </c>
       <c r="H22">
-        <v>5.246384255729775</v>
+        <v>9.242595193615182</v>
       </c>
       <c r="I22">
-        <v>12.09969384390976</v>
+        <v>12.03350032155431</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>104.0562863596363</v>
+        <v>75.36282282232277</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.09505323311648</v>
+        <v>11.8237864535276</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.23563647422077</v>
+        <v>4.579691586882172</v>
       </c>
       <c r="D23">
-        <v>4.870673917645535</v>
+        <v>4.464345125165941</v>
       </c>
       <c r="E23">
-        <v>77.42369892239435</v>
+        <v>52.7413451088992</v>
       </c>
       <c r="F23">
-        <v>15.69840472073528</v>
+        <v>14.05818894464133</v>
       </c>
       <c r="G23">
-        <v>22.26375059288155</v>
+        <v>12.46675179258076</v>
       </c>
       <c r="H23">
-        <v>5.246384255729775</v>
+        <v>9.292570082991027</v>
       </c>
       <c r="I23">
-        <v>12.09969384390976</v>
+        <v>12.07969247590287</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>104.0562863596363</v>
+        <v>74.04558537521504</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.09505323311648</v>
+        <v>11.89532286153417</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.23563647422077</v>
+        <v>4.357531779888063</v>
       </c>
       <c r="D24">
-        <v>4.870673917645535</v>
+        <v>4.279351646033274</v>
       </c>
       <c r="E24">
-        <v>77.42369892239435</v>
+        <v>48.79262648894024</v>
       </c>
       <c r="F24">
-        <v>15.69840472073528</v>
+        <v>14.16148041233488</v>
       </c>
       <c r="G24">
-        <v>22.26375059288155</v>
+        <v>12.33028405686239</v>
       </c>
       <c r="H24">
-        <v>5.246384255729775</v>
+        <v>9.490196414032617</v>
       </c>
       <c r="I24">
-        <v>12.09969384390976</v>
+        <v>12.27652914698713</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>104.0562863596363</v>
+        <v>68.83660422696192</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.09505323311648</v>
+        <v>12.18978211251811</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.23563647422077</v>
+        <v>4.103633258792668</v>
       </c>
       <c r="D25">
-        <v>4.870673917645535</v>
+        <v>4.068969188123933</v>
       </c>
       <c r="E25">
-        <v>77.42369892239435</v>
+        <v>44.17236583867184</v>
       </c>
       <c r="F25">
-        <v>15.69840472073528</v>
+        <v>14.34036964180209</v>
       </c>
       <c r="G25">
-        <v>22.26375059288155</v>
+        <v>12.33102470443367</v>
       </c>
       <c r="H25">
-        <v>5.246384255729775</v>
+        <v>9.720649617242154</v>
       </c>
       <c r="I25">
-        <v>12.09969384390976</v>
+        <v>12.53247634417862</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>104.0562863596363</v>
+        <v>62.74205057483686</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.09505323311648</v>
+        <v>12.55384705179406</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.905473712059812</v>
+        <v>5.357080521938381</v>
       </c>
       <c r="D2">
-        <v>3.905448924006797</v>
+        <v>4.996288497571433</v>
       </c>
       <c r="E2">
-        <v>40.45309662546128</v>
+        <v>80.33083824429247</v>
       </c>
       <c r="F2">
-        <v>14.52525452576912</v>
+        <v>16.44715598127647</v>
       </c>
       <c r="G2">
-        <v>12.44752704532048</v>
+        <v>23.49636613946357</v>
       </c>
       <c r="H2">
-        <v>9.904720290307917</v>
+        <v>5.545766105569238</v>
       </c>
       <c r="I2">
-        <v>12.75548454980884</v>
+        <v>12.67724386699008</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>57.84003720018883</v>
+        <v>107.5995396806109</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.85841554470193</v>
+        <v>12.73815547923466</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.764852942667885</v>
+        <v>5.002331316174399</v>
       </c>
       <c r="D3">
-        <v>3.789696546714558</v>
+        <v>4.637539485309705</v>
       </c>
       <c r="E3">
-        <v>37.73119929783729</v>
+        <v>72.21692871667412</v>
       </c>
       <c r="F3">
-        <v>14.68125214438379</v>
+        <v>14.35850918314267</v>
       </c>
       <c r="G3">
-        <v>12.59179241730543</v>
+        <v>20.0757057326626</v>
       </c>
       <c r="H3">
-        <v>10.03823297957386</v>
+        <v>4.717986324291215</v>
       </c>
       <c r="I3">
-        <v>12.92677391096765</v>
+        <v>11.06302283265759</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>54.2573156657387</v>
+        <v>97.60528210465344</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.08605440471323</v>
+        <v>10.94908325181157</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.675661770934629</v>
+        <v>4.778314771608718</v>
       </c>
       <c r="D4">
-        <v>3.716366721210528</v>
+        <v>4.421370022301547</v>
       </c>
       <c r="E4">
-        <v>35.95960951284731</v>
+        <v>67.57231410401884</v>
       </c>
       <c r="F4">
-        <v>14.79136246438105</v>
+        <v>13.17446494843584</v>
       </c>
       <c r="G4">
-        <v>12.70999339414944</v>
+        <v>18.16026039236256</v>
       </c>
       <c r="H4">
-        <v>10.12447106022344</v>
+        <v>4.259711206553376</v>
       </c>
       <c r="I4">
-        <v>13.04144779435948</v>
+        <v>10.14170690843589</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>51.92864706475579</v>
+        <v>91.74827118172065</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.23583110130845</v>
+        <v>9.939745102477765</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.638645574814985</v>
+        <v>4.684993404208823</v>
       </c>
       <c r="D5">
-        <v>3.685946401379057</v>
+        <v>4.333067568686789</v>
       </c>
       <c r="E5">
-        <v>35.21230098746195</v>
+        <v>65.7177430692312</v>
       </c>
       <c r="F5">
-        <v>14.83971593511907</v>
+        <v>12.70709740478325</v>
       </c>
       <c r="G5">
-        <v>12.7652083651362</v>
+        <v>17.40878244844026</v>
       </c>
       <c r="H5">
-        <v>10.16067609924295</v>
+        <v>4.135230758352755</v>
       </c>
       <c r="I5">
-        <v>13.09050458425047</v>
+        <v>9.776121764065378</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>50.94729169483841</v>
+        <v>89.38509510399469</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.29931705816873</v>
+        <v>9.541690622819129</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.632460054008028</v>
+        <v>4.669366101935311</v>
       </c>
       <c r="D6">
-        <v>3.680863576838231</v>
+        <v>4.31836897305276</v>
       </c>
       <c r="E6">
-        <v>35.08667465392342</v>
+        <v>65.41119999335633</v>
       </c>
       <c r="F6">
-        <v>14.84795185878711</v>
+        <v>12.63022493232956</v>
       </c>
       <c r="G6">
-        <v>12.77479052390807</v>
+        <v>17.28542922723597</v>
       </c>
       <c r="H6">
-        <v>10.16675182533773</v>
+        <v>4.138167830905341</v>
       </c>
       <c r="I6">
-        <v>13.09878913471534</v>
+        <v>9.715863605155119</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>50.78238217002004</v>
+        <v>88.99321249946367</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.31000504363131</v>
+        <v>9.476219093964524</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.675165205415698</v>
+        <v>4.777064851299947</v>
       </c>
       <c r="D7">
-        <v>3.715958598189972</v>
+        <v>4.42018111574619</v>
       </c>
       <c r="E7">
-        <v>35.94963395749275</v>
+        <v>67.54719104240372</v>
       </c>
       <c r="F7">
-        <v>14.7920006324524</v>
+        <v>13.16810923032655</v>
       </c>
       <c r="G7">
-        <v>12.71071004502947</v>
+        <v>18.15002363528958</v>
       </c>
       <c r="H7">
-        <v>10.12495504428802</v>
+        <v>4.257275631043772</v>
       </c>
       <c r="I7">
-        <v>13.04210005376081</v>
+        <v>10.13674366529185</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>51.91554333318729</v>
+        <v>91.71634809832344</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.23667745527838</v>
+        <v>9.93433150579356</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.857605329587284</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D8">
-        <v>3.866023003388952</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E8">
-        <v>39.53532264187566</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F8">
-        <v>14.57599619573893</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G8">
-        <v>12.4908836634861</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H8">
-        <v>9.949865519351617</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I8">
-        <v>12.81253439787743</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>56.63144614659222</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.93478823267061</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.190980020149619</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D9">
-        <v>4.141227629073909</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E9">
-        <v>45.77755605998806</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F9">
-        <v>14.27152322778262</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G9">
-        <v>12.31191213287756</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H9">
-        <v>9.64075606805998</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I9">
-        <v>12.44069930196613</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>64.85909885559037</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.4253217240489</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.41899598454978</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D10">
-        <v>4.330444601490361</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E10">
-        <v>49.89247115506764</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F10">
-        <v>14.12791004217895</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G10">
-        <v>12.35524804906226</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H10">
-        <v>9.435171739880143</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I10">
-        <v>12.21952533631949</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>70.28760507029757</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.10603144985317</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.51870931586717</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D11">
-        <v>4.413475864618293</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E11">
-        <v>51.66438077649066</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F11">
-        <v>14.08156126745253</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G11">
-        <v>12.41657632554686</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H11">
-        <v>9.346477326387436</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I11">
-        <v>12.13118059189596</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>72.62507423863961</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.97386099466021</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.555867656098341</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D12">
-        <v>4.444463868016824</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E12">
-        <v>52.32116809572973</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F12">
-        <v>14.06686877974704</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G12">
-        <v>12.4460078160457</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H12">
-        <v>9.313600211445939</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I12">
-        <v>12.0995762663881</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>73.49139680176123</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.92579554081342</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.547892014516262</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D13">
-        <v>4.437810480342423</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E13">
-        <v>52.18034563227636</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F13">
-        <v>14.06990389740248</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G13">
-        <v>12.43939024195762</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H13">
-        <v>9.320649069117092</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I13">
-        <v>12.10629914842097</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>73.30565342710575</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.93605728872384</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.521778523543456</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D14">
-        <v>4.416034453183623</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E14">
-        <v>51.71869852158455</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F14">
-        <v>14.08029448310079</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G14">
-        <v>12.41887220335339</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H14">
-        <v>9.343758192904097</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I14">
-        <v>12.12854290741399</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>72.69672348813351</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.9698662218742</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.505704344592509</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D15">
-        <v>4.402636420840919</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E15">
-        <v>51.43408303023234</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F15">
-        <v>14.08703510354367</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G15">
-        <v>12.40711830762945</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H15">
-        <v>9.358006082369526</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I15">
-        <v>12.14241136514456</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>72.32128940852843</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.99083684991599</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.412396617106815</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D16">
-        <v>4.32495559999153</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E16">
-        <v>49.77467610133067</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F16">
-        <v>14.13133211169708</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G16">
-        <v>12.3520980445059</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H16">
-        <v>9.441066546272076</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I16">
-        <v>12.22555299869022</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>70.13220277448985</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.11494097180642</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.354109525255939</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D17">
-        <v>4.276508791304942</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E17">
-        <v>48.73120218939457</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F17">
-        <v>14.16346129986302</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G17">
-        <v>12.32918218982192</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H17">
-        <v>9.493268293644826</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I17">
-        <v>12.27975988890409</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>68.75556782396845</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.1944958249117</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.320207874811309</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D18">
-        <v>4.248357729307262</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E18">
-        <v>48.12160123404342</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F18">
-        <v>14.18372019023938</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G18">
-        <v>12.31990890362691</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H18">
-        <v>9.523746689031791</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I18">
-        <v>12.31208768271913</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>67.95133038828438</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.24147778449519</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.308665489950588</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D19">
-        <v>4.238777723879632</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E19">
-        <v>47.91357709163687</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F19">
-        <v>14.19088107194834</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G19">
-        <v>12.31743237472913</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H19">
-        <v>9.534143562052993</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I19">
-        <v>12.32322817431193</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>67.67688957482844</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.25759225557313</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.360353432289657</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D20">
-        <v>4.281695735475675</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E20">
-        <v>48.84325565085075</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F20">
-        <v>14.15985602511353</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G20">
-        <v>12.33121540951811</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H20">
-        <v>9.487664303090478</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I20">
-        <v>12.27386990125632</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>68.90339872085933</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.18589965248264</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.529465171961054</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D21">
-        <v>4.422443044012199</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E21">
-        <v>51.85467927975165</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F21">
-        <v>14.07716391364231</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G21">
-        <v>12.42472890355965</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H21">
-        <v>9.336951096657323</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I21">
-        <v>12.12195847078695</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>72.876090609252</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.95988098805931</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.636478012592539</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D22">
-        <v>4.511776532061114</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E22">
-        <v>53.7401595660595</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F22">
-        <v>14.0398407229994</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G22">
-        <v>12.52208696136718</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H22">
-        <v>9.242595193615182</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I22">
-        <v>12.03350032155431</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>75.36282282232277</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.8237864535276</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.579691586882172</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D23">
-        <v>4.464345125165941</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E23">
-        <v>52.7413451088992</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F23">
-        <v>14.05818894464133</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G23">
-        <v>12.46675179258076</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H23">
-        <v>9.292570082991027</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I23">
-        <v>12.07969247590287</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>74.04558537521504</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.89532286153417</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.357531779888063</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D24">
-        <v>4.279351646033274</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E24">
-        <v>48.79262648894024</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F24">
-        <v>14.16148041233488</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G24">
-        <v>12.33028405686239</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H24">
-        <v>9.490196414032617</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I24">
-        <v>12.27652914698713</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>68.83660422696192</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.18978211251811</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.103633258792668</v>
+        <v>5.23563647422077</v>
       </c>
       <c r="D25">
-        <v>4.068969188123933</v>
+        <v>4.870673917645441</v>
       </c>
       <c r="E25">
-        <v>44.17236583867184</v>
+        <v>77.42369892239434</v>
       </c>
       <c r="F25">
-        <v>14.34036964180209</v>
+        <v>15.6984047207353</v>
       </c>
       <c r="G25">
-        <v>12.33102470443367</v>
+        <v>22.26375059288165</v>
       </c>
       <c r="H25">
-        <v>9.720649617242154</v>
+        <v>5.24638425572974</v>
       </c>
       <c r="I25">
-        <v>12.53247634417862</v>
+        <v>12.09969384390973</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>62.74205057483686</v>
+        <v>104.0562863596364</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.55384705179406</v>
+        <v>12.09505323311647</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.357080521938381</v>
+        <v>5.928749596618457</v>
       </c>
       <c r="D2">
-        <v>4.996288497571433</v>
+        <v>5.087612713933163</v>
       </c>
       <c r="E2">
-        <v>80.33083824429247</v>
+        <v>29.14676800309433</v>
       </c>
       <c r="F2">
-        <v>16.44715598127647</v>
+        <v>14.54086163908171</v>
       </c>
       <c r="G2">
-        <v>23.49636613946357</v>
+        <v>16.50428508335835</v>
       </c>
       <c r="H2">
-        <v>5.545766105569238</v>
+        <v>3.116596850585378</v>
       </c>
       <c r="I2">
-        <v>12.67724386699008</v>
+        <v>3.932934899683676</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.436564364272733</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.15650096975518</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>107.5995396806109</v>
+        <v>24.84159122641795</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.73815547923466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>11.45703654271427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.002331316174399</v>
+        <v>5.610914396399877</v>
       </c>
       <c r="D3">
-        <v>4.637539485309705</v>
+        <v>4.854477594892566</v>
       </c>
       <c r="E3">
-        <v>72.21692871667412</v>
+        <v>27.29402024605432</v>
       </c>
       <c r="F3">
-        <v>14.35850918314267</v>
+        <v>14.28906660653758</v>
       </c>
       <c r="G3">
-        <v>20.0757057326626</v>
+        <v>16.23028361663436</v>
       </c>
       <c r="H3">
-        <v>4.717986324291215</v>
+        <v>2.883344844656982</v>
       </c>
       <c r="I3">
-        <v>11.06302283265759</v>
+        <v>3.761413734314361</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.510486489716182</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.08940310677336</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>97.60528210465344</v>
+        <v>23.2882132388831</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.94908325181157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>11.50155632306551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.778314771608718</v>
+        <v>5.401413034149072</v>
       </c>
       <c r="D4">
-        <v>4.421370022301547</v>
+        <v>4.705248920371536</v>
       </c>
       <c r="E4">
-        <v>67.57231410401884</v>
+        <v>26.09281727048216</v>
       </c>
       <c r="F4">
-        <v>13.17446494843584</v>
+        <v>14.14533836543226</v>
       </c>
       <c r="G4">
-        <v>18.16026039236256</v>
+        <v>16.08070855529026</v>
       </c>
       <c r="H4">
-        <v>4.259711206553376</v>
+        <v>2.735174393960408</v>
       </c>
       <c r="I4">
-        <v>10.14170690843589</v>
+        <v>3.652785275074209</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.559826101877801</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.05377225842342</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>91.74827118172065</v>
+        <v>22.27927050798697</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9.939745102477765</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>11.53849082258013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.684993404208823</v>
+        <v>5.299924085490745</v>
       </c>
       <c r="D5">
-        <v>4.333067568686789</v>
+        <v>4.644691830906357</v>
       </c>
       <c r="E5">
-        <v>65.7177430692312</v>
+        <v>25.58708298044924</v>
       </c>
       <c r="F5">
-        <v>12.70709740478325</v>
+        <v>14.08213113920717</v>
       </c>
       <c r="G5">
-        <v>17.40878244844026</v>
+        <v>16.01102056076187</v>
       </c>
       <c r="H5">
-        <v>4.135230758352755</v>
+        <v>2.673373988879702</v>
       </c>
       <c r="I5">
-        <v>9.776121764065378</v>
+        <v>3.607651628387049</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.579011356792418</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.03298899171982</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>89.38509510399469</v>
+        <v>21.85413240709004</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.541690622819129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>11.55080524635987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.669366101935311</v>
+        <v>5.267541788200549</v>
       </c>
       <c r="D6">
-        <v>4.31836897305276</v>
+        <v>4.636683589313203</v>
       </c>
       <c r="E6">
-        <v>65.41119999335633</v>
+        <v>25.50183710040503</v>
       </c>
       <c r="F6">
-        <v>12.63022493232956</v>
+        <v>14.06281324497279</v>
       </c>
       <c r="G6">
-        <v>17.28542922723597</v>
+        <v>15.98347018154697</v>
       </c>
       <c r="H6">
-        <v>4.138167830905341</v>
+        <v>2.662847544685683</v>
       </c>
       <c r="I6">
-        <v>9.715863605155119</v>
+        <v>3.600237651837521</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.579967194641641</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.02031248804673</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>88.99321249946367</v>
+        <v>21.78250189664353</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>9.476219093964524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>11.54685405415693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.777064851299947</v>
+        <v>5.358972558483169</v>
       </c>
       <c r="D7">
-        <v>4.42018111574619</v>
+        <v>4.710192486616402</v>
       </c>
       <c r="E7">
-        <v>67.54719104240372</v>
+        <v>26.08524918715523</v>
       </c>
       <c r="F7">
-        <v>13.16810923032655</v>
+        <v>14.12005592171476</v>
       </c>
       <c r="G7">
-        <v>18.15002363528958</v>
+        <v>16.0355459543293</v>
       </c>
       <c r="H7">
-        <v>4.257275631043772</v>
+        <v>2.733841728842457</v>
       </c>
       <c r="I7">
-        <v>10.13674366529185</v>
+        <v>3.652308567571744</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.553829726412628</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.02809011260074</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>91.71634809832344</v>
+        <v>22.27305025190854</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9.93433150579356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>11.52188817166155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.23563647422077</v>
+        <v>5.771123790715357</v>
       </c>
       <c r="D8">
-        <v>4.870673917645441</v>
+        <v>5.015772983222345</v>
       </c>
       <c r="E8">
-        <v>77.42369892239434</v>
+        <v>28.52014409520399</v>
       </c>
       <c r="F8">
-        <v>15.6984047207353</v>
+        <v>14.42011150384956</v>
       </c>
       <c r="G8">
-        <v>22.26375059288165</v>
+        <v>16.34842181305979</v>
       </c>
       <c r="H8">
-        <v>5.24638425572974</v>
+        <v>3.036552634170901</v>
       </c>
       <c r="I8">
-        <v>12.09969384390973</v>
+        <v>3.87441106377806</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.452895645200243</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.09875912416356</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>104.0562863596364</v>
+        <v>24.31680098737122</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11.44808670610935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.23563647422077</v>
+        <v>6.531774377726827</v>
       </c>
       <c r="D9">
-        <v>4.870673917645441</v>
+        <v>5.555734639844419</v>
       </c>
       <c r="E9">
-        <v>77.42369892239434</v>
+        <v>32.79227706385932</v>
       </c>
       <c r="F9">
-        <v>15.6984047207353</v>
+        <v>15.13797906415757</v>
       </c>
       <c r="G9">
-        <v>22.26375059288165</v>
+        <v>17.19235784318109</v>
       </c>
       <c r="H9">
-        <v>5.24638425572974</v>
+        <v>3.592683352084316</v>
       </c>
       <c r="I9">
-        <v>12.09969384390973</v>
+        <v>4.284776528212367</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.299732362472389</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.32888218691591</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>104.0562863596364</v>
+        <v>27.8867157054172</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11.41590845760618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.23563647422077</v>
+        <v>7.020254896330756</v>
       </c>
       <c r="D10">
-        <v>4.870673917645441</v>
+        <v>5.949839248992595</v>
       </c>
       <c r="E10">
-        <v>77.42369892239434</v>
+        <v>34.74941093147317</v>
       </c>
       <c r="F10">
-        <v>15.6984047207353</v>
+        <v>15.59272025151363</v>
       </c>
       <c r="G10">
-        <v>22.26375059288165</v>
+        <v>17.68183368162457</v>
       </c>
       <c r="H10">
-        <v>5.24638425572974</v>
+        <v>3.943886438456101</v>
       </c>
       <c r="I10">
-        <v>12.09969384390973</v>
+        <v>4.565884268391796</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.176600479792447</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.44244536518085</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>104.0562863596364</v>
+        <v>30.23828063117827</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.3585997935171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.23563647422077</v>
+        <v>7.327512186248231</v>
       </c>
       <c r="D11">
-        <v>4.870673917645441</v>
+        <v>6.359265371668592</v>
       </c>
       <c r="E11">
-        <v>77.42369892239434</v>
+        <v>28.13198332435541</v>
       </c>
       <c r="F11">
-        <v>15.6984047207353</v>
+        <v>14.7840772016039</v>
       </c>
       <c r="G11">
-        <v>22.26375059288165</v>
+        <v>16.06470336349797</v>
       </c>
       <c r="H11">
-        <v>5.24638425572974</v>
+        <v>4.326069570052977</v>
       </c>
       <c r="I11">
-        <v>12.09969384390973</v>
+        <v>4.643449541007731</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.847385791927313</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>11.81821367347773</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>104.0562863596364</v>
+        <v>31.22144135457105</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>10.59075926132391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.23563647422077</v>
+        <v>7.549462842615712</v>
       </c>
       <c r="D12">
-        <v>4.870673917645441</v>
+        <v>6.618954430087792</v>
       </c>
       <c r="E12">
-        <v>77.42369892239434</v>
+        <v>22.16532720978475</v>
       </c>
       <c r="F12">
-        <v>15.6984047207353</v>
+        <v>14.0211619614688</v>
       </c>
       <c r="G12">
-        <v>22.26375059288165</v>
+        <v>14.62965812732276</v>
       </c>
       <c r="H12">
-        <v>5.24638425572974</v>
+        <v>5.16903467113999</v>
       </c>
       <c r="I12">
-        <v>12.09969384390973</v>
+        <v>4.65594471306433</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.604602852452861</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.29756370264977</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>104.0562863596364</v>
+        <v>31.57673450308203</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>9.974800945790498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.23563647422077</v>
+        <v>7.675006742169939</v>
       </c>
       <c r="D13">
-        <v>4.870673917645441</v>
+        <v>6.792478630660108</v>
       </c>
       <c r="E13">
-        <v>77.42369892239434</v>
+        <v>16.21627754231628</v>
       </c>
       <c r="F13">
-        <v>15.6984047207353</v>
+        <v>13.19770356852037</v>
       </c>
       <c r="G13">
-        <v>22.26375059288165</v>
+        <v>13.15803081501276</v>
       </c>
       <c r="H13">
-        <v>5.24638425572974</v>
+        <v>6.222034347914873</v>
       </c>
       <c r="I13">
-        <v>12.09969384390973</v>
+        <v>4.620088559887961</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.405747213697404</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10.7841708439893</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>104.0562863596364</v>
+        <v>31.48168233377615</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>9.414840705045346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.23563647422077</v>
+        <v>7.711918050257875</v>
       </c>
       <c r="D14">
-        <v>4.870673917645441</v>
+        <v>6.878338319355083</v>
       </c>
       <c r="E14">
-        <v>77.42369892239434</v>
+        <v>12.10841380192131</v>
       </c>
       <c r="F14">
-        <v>15.6984047207353</v>
+        <v>12.58411361810544</v>
       </c>
       <c r="G14">
-        <v>22.26375059288165</v>
+        <v>12.09737274451159</v>
       </c>
       <c r="H14">
-        <v>5.24638425572974</v>
+        <v>7.039918541407592</v>
       </c>
       <c r="I14">
-        <v>12.09969384390973</v>
+        <v>4.574125664990915</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.287732636852573</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10.42348877700032</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>104.0562863596364</v>
+        <v>31.21044263721959</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>9.051231712725786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.23563647422077</v>
+        <v>7.685684096479569</v>
       </c>
       <c r="D15">
-        <v>4.870673917645441</v>
+        <v>6.882919962394676</v>
       </c>
       <c r="E15">
-        <v>77.42369892239434</v>
+        <v>11.11979285443817</v>
       </c>
       <c r="F15">
-        <v>15.6984047207353</v>
+        <v>12.41550678030319</v>
       </c>
       <c r="G15">
-        <v>22.26375059288165</v>
+        <v>11.8208392404332</v>
       </c>
       <c r="H15">
-        <v>5.24638425572974</v>
+        <v>7.228384135417542</v>
       </c>
       <c r="I15">
-        <v>12.09969384390973</v>
+        <v>4.552195887568668</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.267116699340793</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10.33041875906923</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>104.0562863596364</v>
+        <v>31.04643800648673</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>8.971766320210341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.23563647422077</v>
+        <v>7.448649429540061</v>
       </c>
       <c r="D16">
-        <v>4.870673917645441</v>
+        <v>6.699173377941644</v>
       </c>
       <c r="E16">
-        <v>77.42369892239434</v>
+        <v>11.02226994458956</v>
       </c>
       <c r="F16">
-        <v>15.6984047207353</v>
+        <v>12.34099480135919</v>
       </c>
       <c r="G16">
-        <v>22.26375059288165</v>
+        <v>11.83118587386347</v>
       </c>
       <c r="H16">
-        <v>5.24638425572974</v>
+        <v>6.954906453135587</v>
       </c>
       <c r="I16">
-        <v>12.09969384390973</v>
+        <v>4.441272687124237</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.360657103450803</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>10.3668271095255</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>104.0562863596364</v>
+        <v>30.10106321509386</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>9.106683184533518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.23563647422077</v>
+        <v>7.239695702163409</v>
       </c>
       <c r="D17">
-        <v>4.870673917645441</v>
+        <v>6.507936120700522</v>
       </c>
       <c r="E17">
-        <v>77.42369892239434</v>
+        <v>13.17281524631992</v>
       </c>
       <c r="F17">
-        <v>15.6984047207353</v>
+        <v>12.61892984733691</v>
       </c>
       <c r="G17">
-        <v>22.26375059288165</v>
+        <v>12.41346382678893</v>
       </c>
       <c r="H17">
-        <v>5.24638425572974</v>
+        <v>6.260364886314583</v>
       </c>
       <c r="I17">
-        <v>12.09969384390973</v>
+        <v>4.379931252618039</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.493268306918119</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10.58615758008744</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>104.0562863596364</v>
+        <v>29.510514181468</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9.398677451925943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.23563647422077</v>
+        <v>7.068224994505902</v>
       </c>
       <c r="D18">
-        <v>4.870673917645441</v>
+        <v>6.286391974153968</v>
       </c>
       <c r="E18">
-        <v>77.42369892239434</v>
+        <v>17.7784306637311</v>
       </c>
       <c r="F18">
-        <v>15.6984047207353</v>
+        <v>13.24089825732863</v>
       </c>
       <c r="G18">
-        <v>22.26375059288165</v>
+        <v>13.57429131093477</v>
       </c>
       <c r="H18">
-        <v>5.24638425572974</v>
+        <v>5.208180584817662</v>
       </c>
       <c r="I18">
-        <v>12.09969384390973</v>
+        <v>4.356460214591163</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.680201122003226</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.00479619591004</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>104.0562863596364</v>
+        <v>29.17354147911099</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>9.873039623156336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.23563647422077</v>
+        <v>6.883302105763768</v>
       </c>
       <c r="D19">
-        <v>4.870673917645441</v>
+        <v>6.069775907802619</v>
       </c>
       <c r="E19">
-        <v>77.42369892239434</v>
+        <v>24.07579727004067</v>
       </c>
       <c r="F19">
-        <v>15.6984047207353</v>
+        <v>14.04575501337041</v>
       </c>
       <c r="G19">
-        <v>22.26375059288165</v>
+        <v>15.03973248773817</v>
       </c>
       <c r="H19">
-        <v>5.24638425572974</v>
+        <v>4.196743357111412</v>
       </c>
       <c r="I19">
-        <v>12.09969384390973</v>
+        <v>4.373013110475121</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.892052468656654</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.51334202579896</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>104.0562863596364</v>
+        <v>29.0719695335752</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10.44336729592838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.23563647422077</v>
+        <v>6.794533976088058</v>
       </c>
       <c r="D20">
-        <v>4.870673917645441</v>
+        <v>5.865139076709283</v>
       </c>
       <c r="E20">
-        <v>77.42369892239434</v>
+        <v>34.20573810793852</v>
       </c>
       <c r="F20">
-        <v>15.6984047207353</v>
+        <v>15.39486581345722</v>
       </c>
       <c r="G20">
-        <v>22.26375059288165</v>
+        <v>17.41084731804806</v>
       </c>
       <c r="H20">
-        <v>5.24638425572974</v>
+        <v>3.849204445261019</v>
       </c>
       <c r="I20">
-        <v>12.09969384390973</v>
+        <v>4.495116076523318</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.186193471118144</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.33065258029539</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>104.0562863596364</v>
+        <v>29.6373225265082</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.31380648867992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.23563647422077</v>
+        <v>7.148054592293647</v>
       </c>
       <c r="D21">
-        <v>4.870673917645441</v>
+        <v>6.111851639998719</v>
       </c>
       <c r="E21">
-        <v>77.42369892239434</v>
+        <v>36.97934434448794</v>
       </c>
       <c r="F21">
-        <v>15.6984047207353</v>
+        <v>15.95489037369283</v>
       </c>
       <c r="G21">
-        <v>22.26375059288165</v>
+        <v>18.17222897199641</v>
       </c>
       <c r="H21">
-        <v>5.24638425572974</v>
+        <v>4.168048021661331</v>
       </c>
       <c r="I21">
-        <v>12.09969384390973</v>
+        <v>4.715787004211185</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.152370359247909</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.56090368825686</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>104.0562863596364</v>
+        <v>31.36346190570471</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11.43266856455655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.23563647422077</v>
+        <v>7.414114010599748</v>
       </c>
       <c r="D22">
-        <v>4.870673917645441</v>
+        <v>6.274949542977063</v>
       </c>
       <c r="E22">
-        <v>77.42369892239434</v>
+        <v>38.28468272342963</v>
       </c>
       <c r="F22">
-        <v>15.6984047207353</v>
+        <v>16.29890177025186</v>
       </c>
       <c r="G22">
-        <v>22.26375059288165</v>
+        <v>18.63048064741279</v>
       </c>
       <c r="H22">
-        <v>5.24638425572974</v>
+        <v>4.354780405884096</v>
       </c>
       <c r="I22">
-        <v>12.09969384390973</v>
+        <v>4.85357934055965</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.128190748429578</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.71092353313037</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>104.0562863596364</v>
+        <v>32.44210426517611</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>11.50212175809514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.23563647422077</v>
+        <v>7.310086845709135</v>
       </c>
       <c r="D23">
-        <v>4.870673917645441</v>
+        <v>6.182960688109565</v>
       </c>
       <c r="E23">
-        <v>77.42369892239434</v>
+        <v>37.5936854249464</v>
       </c>
       <c r="F23">
-        <v>15.6984047207353</v>
+        <v>16.13987076902121</v>
       </c>
       <c r="G23">
-        <v>22.26375059288165</v>
+        <v>18.43008012193704</v>
       </c>
       <c r="H23">
-        <v>5.24638425572974</v>
+        <v>4.255921104136394</v>
       </c>
       <c r="I23">
-        <v>12.09969384390973</v>
+        <v>4.77922238331184</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.148114492836226</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.65879362669446</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>104.0562863596364</v>
+        <v>31.87127768906207</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11.48335649584761</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.23563647422077</v>
+        <v>6.834766106009782</v>
       </c>
       <c r="D24">
-        <v>4.870673917645441</v>
+        <v>5.830802671868044</v>
       </c>
       <c r="E24">
-        <v>77.42369892239434</v>
+        <v>34.86639022012474</v>
       </c>
       <c r="F24">
-        <v>15.6984047207353</v>
+        <v>15.51758040131162</v>
       </c>
       <c r="G24">
-        <v>22.26375059288165</v>
+        <v>17.63797846663429</v>
       </c>
       <c r="H24">
-        <v>5.24638425572974</v>
+        <v>3.873687399606372</v>
       </c>
       <c r="I24">
-        <v>12.09969384390973</v>
+        <v>4.494421618967785</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.222822364524387</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.43044096313081</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>104.0562863596364</v>
+        <v>29.6119333762933</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.09505323311647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11.40892175989832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.23563647422077</v>
+        <v>6.274462132296968</v>
       </c>
       <c r="D25">
-        <v>4.870673917645441</v>
+        <v>5.424438608123034</v>
       </c>
       <c r="E25">
-        <v>77.42369892239434</v>
+        <v>31.68907776130226</v>
       </c>
       <c r="F25">
-        <v>15.6984047207353</v>
+        <v>14.89266650580529</v>
       </c>
       <c r="G25">
-        <v>22.26375059288165</v>
+        <v>16.87130855885937</v>
       </c>
       <c r="H25">
-        <v>5.24638425572974</v>
+        <v>3.445383364069168</v>
       </c>
       <c r="I25">
-        <v>12.09969384390973</v>
+        <v>4.177131513387398</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.325834431180588</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.21628674271649</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>104.0562863596364</v>
+        <v>26.9671738897709</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.09505323311647</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11.38455958501155</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.928749596618457</v>
+        <v>5.156244919710932</v>
       </c>
       <c r="D2">
-        <v>5.087612713933163</v>
+        <v>5.222482810741544</v>
       </c>
       <c r="E2">
-        <v>29.14676800309433</v>
+        <v>29.09021972966933</v>
       </c>
       <c r="F2">
-        <v>14.54086163908171</v>
+        <v>14.140980934711</v>
       </c>
       <c r="G2">
-        <v>16.50428508335835</v>
+        <v>14.97528320350821</v>
       </c>
       <c r="H2">
-        <v>3.116596850585378</v>
+        <v>3.080261915500608</v>
       </c>
       <c r="I2">
-        <v>3.932934899683676</v>
+        <v>3.849522337859575</v>
       </c>
       <c r="J2">
-        <v>7.436564364272733</v>
+        <v>8.003823073649174</v>
       </c>
       <c r="K2">
-        <v>12.15650096975518</v>
+        <v>11.73869460616926</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.26205494689977</v>
       </c>
       <c r="M2">
-        <v>24.84159122641795</v>
+        <v>6.332446410415436</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>24.80441660660084</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>11.45703654271427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>11.22214056437885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.610914396399877</v>
+        <v>4.923165112894055</v>
       </c>
       <c r="D3">
-        <v>4.854477594892566</v>
+        <v>4.966788551664774</v>
       </c>
       <c r="E3">
-        <v>27.29402024605432</v>
+        <v>27.24829598580417</v>
       </c>
       <c r="F3">
-        <v>14.28906660653758</v>
+        <v>13.96425895419784</v>
       </c>
       <c r="G3">
-        <v>16.23028361663436</v>
+        <v>14.82319498197448</v>
       </c>
       <c r="H3">
-        <v>2.883344844656982</v>
+        <v>2.854465513693754</v>
       </c>
       <c r="I3">
-        <v>3.761413734314361</v>
+        <v>3.700910681113764</v>
       </c>
       <c r="J3">
-        <v>7.510486489716182</v>
+        <v>8.059034588117633</v>
       </c>
       <c r="K3">
-        <v>12.08940310677336</v>
+        <v>11.73828030130744</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.39841030339039</v>
       </c>
       <c r="M3">
-        <v>23.2882132388831</v>
+        <v>6.122434787201909</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>23.25788098507307</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.50155632306551</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11.31317417521385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.401413034149072</v>
+        <v>4.768654133951125</v>
       </c>
       <c r="D4">
-        <v>4.705248920371536</v>
+        <v>4.803022499153403</v>
       </c>
       <c r="E4">
-        <v>26.09281727048216</v>
+        <v>26.05397893939586</v>
       </c>
       <c r="F4">
-        <v>14.14533836543226</v>
+        <v>13.86556542153518</v>
       </c>
       <c r="G4">
-        <v>16.08070855529026</v>
+        <v>14.75148696029466</v>
       </c>
       <c r="H4">
-        <v>2.735174393960408</v>
+        <v>2.710972321001404</v>
       </c>
       <c r="I4">
-        <v>3.652785275074209</v>
+        <v>3.606861052278897</v>
       </c>
       <c r="J4">
-        <v>7.559826101877801</v>
+        <v>8.094778850790187</v>
       </c>
       <c r="K4">
-        <v>12.05377225842342</v>
+        <v>11.74162686214325</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.48285779520696</v>
       </c>
       <c r="M4">
-        <v>22.27927050798697</v>
+        <v>6.019995611066433</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>22.25333582945322</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11.53849082258013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11.37682519709936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.299924085490745</v>
+        <v>4.69117607753881</v>
       </c>
       <c r="D5">
-        <v>4.644691830906357</v>
+        <v>4.736349113128353</v>
       </c>
       <c r="E5">
-        <v>25.58708298044924</v>
+        <v>25.55114039843593</v>
       </c>
       <c r="F5">
-        <v>14.08213113920717</v>
+        <v>13.82072392591822</v>
       </c>
       <c r="G5">
-        <v>16.01102056076187</v>
+        <v>14.71435398550636</v>
       </c>
       <c r="H5">
-        <v>2.673373988879702</v>
+        <v>2.651115431570371</v>
       </c>
       <c r="I5">
-        <v>3.607651628387049</v>
+        <v>3.568041215556398</v>
       </c>
       <c r="J5">
-        <v>7.579011356792418</v>
+        <v>8.108059950042339</v>
       </c>
       <c r="K5">
-        <v>12.03298899171982</v>
+        <v>11.73678579330705</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.51167992590433</v>
       </c>
       <c r="M5">
-        <v>21.85413240709004</v>
+        <v>5.980205353724317</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>21.83006046243155</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11.55080524635987</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.39989877501349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.267541788200549</v>
+        <v>4.663955982566853</v>
       </c>
       <c r="D6">
-        <v>4.636683589313203</v>
+        <v>4.727282218501754</v>
       </c>
       <c r="E6">
-        <v>25.50183710040503</v>
+        <v>25.46640331167003</v>
       </c>
       <c r="F6">
-        <v>14.06281324497279</v>
+        <v>13.80483249576972</v>
       </c>
       <c r="G6">
-        <v>15.98347018154697</v>
+        <v>14.69251448476271</v>
       </c>
       <c r="H6">
-        <v>2.662847544685683</v>
+        <v>2.640926623040511</v>
       </c>
       <c r="I6">
-        <v>3.600237651837521</v>
+        <v>3.562013032687475</v>
       </c>
       <c r="J6">
-        <v>7.579967194641641</v>
+        <v>8.108173791887571</v>
       </c>
       <c r="K6">
-        <v>12.02031248804673</v>
+        <v>11.72740939462494</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.50942913372372</v>
       </c>
       <c r="M6">
-        <v>21.78250189664353</v>
+        <v>5.967812593077741</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>21.7587587791703</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11.54685405415693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11.3980985355169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.358972558483169</v>
+        <v>4.734094028346545</v>
       </c>
       <c r="D7">
-        <v>4.710192486616402</v>
+        <v>4.811251916353047</v>
       </c>
       <c r="E7">
-        <v>26.08524918715523</v>
+        <v>26.04603432307476</v>
       </c>
       <c r="F7">
-        <v>14.12005592171476</v>
+        <v>13.82752425677288</v>
       </c>
       <c r="G7">
-        <v>16.0355459543293</v>
+        <v>14.79179067625957</v>
       </c>
       <c r="H7">
-        <v>2.733841728842457</v>
+        <v>2.709402354191246</v>
       </c>
       <c r="I7">
-        <v>3.652308567571744</v>
+        <v>3.606834087912935</v>
       </c>
       <c r="J7">
-        <v>7.553829726412628</v>
+        <v>8.058356172888233</v>
       </c>
       <c r="K7">
-        <v>12.02809011260074</v>
+        <v>11.7099628205916</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.45801615780193</v>
       </c>
       <c r="M7">
-        <v>22.27305025190854</v>
+        <v>5.995668225983876</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>22.24686350099969</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11.52188817166155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11.35204110925689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.771123790715357</v>
+        <v>5.045255909959335</v>
       </c>
       <c r="D8">
-        <v>5.015772983222345</v>
+        <v>5.153823559732996</v>
       </c>
       <c r="E8">
-        <v>28.52014409520399</v>
+        <v>28.46593884757068</v>
       </c>
       <c r="F8">
-        <v>14.42011150384956</v>
+        <v>14.00179710760524</v>
       </c>
       <c r="G8">
-        <v>16.34842181305979</v>
+        <v>15.13984155040716</v>
       </c>
       <c r="H8">
-        <v>3.036552634170901</v>
+        <v>3.001898623004829</v>
       </c>
       <c r="I8">
-        <v>3.87441106377806</v>
+        <v>3.798369070367422</v>
       </c>
       <c r="J8">
-        <v>7.452895645200243</v>
+        <v>7.914176590244754</v>
       </c>
       <c r="K8">
-        <v>12.09875912416356</v>
+        <v>11.68044108092904</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.26635926495704</v>
       </c>
       <c r="M8">
-        <v>24.31680098737122</v>
+        <v>6.207000997537402</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>24.28106369509116</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11.44808670610935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11.19987338524944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.531774377726827</v>
+        <v>5.610864994849527</v>
       </c>
       <c r="D9">
-        <v>5.555734639844419</v>
+        <v>5.748001445043654</v>
       </c>
       <c r="E9">
-        <v>32.79227706385932</v>
+        <v>32.71176660331976</v>
       </c>
       <c r="F9">
-        <v>15.13797906415757</v>
+        <v>14.51678278901787</v>
       </c>
       <c r="G9">
-        <v>17.19235784318109</v>
+        <v>15.76646358002519</v>
       </c>
       <c r="H9">
-        <v>3.592683352084316</v>
+        <v>3.539726528981969</v>
       </c>
       <c r="I9">
-        <v>4.284776528212367</v>
+        <v>4.153134709498238</v>
       </c>
       <c r="J9">
-        <v>7.299732362472389</v>
+        <v>7.764893650517402</v>
       </c>
       <c r="K9">
-        <v>12.32888218691591</v>
+        <v>11.72459115951239</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.94961825212147</v>
       </c>
       <c r="M9">
-        <v>27.8867157054172</v>
+        <v>6.871939042469682</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>27.8345421264504</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11.41590845760618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.03083869523358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.020254896330756</v>
+        <v>6.003047334671592</v>
       </c>
       <c r="D10">
-        <v>5.949839248992595</v>
+        <v>6.193277441017391</v>
       </c>
       <c r="E10">
-        <v>34.74941093147317</v>
+        <v>34.64826308194651</v>
       </c>
       <c r="F10">
-        <v>15.59272025151363</v>
+        <v>14.75746738255542</v>
       </c>
       <c r="G10">
-        <v>17.68183368162457</v>
+        <v>16.59013913401261</v>
       </c>
       <c r="H10">
-        <v>3.943886438456101</v>
+        <v>3.876993766513961</v>
       </c>
       <c r="I10">
-        <v>4.565884268391796</v>
+        <v>4.394863699172542</v>
       </c>
       <c r="J10">
-        <v>7.176600479792447</v>
+        <v>7.470264745561551</v>
       </c>
       <c r="K10">
-        <v>12.44244536518085</v>
+        <v>11.66203701786886</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.64624594113484</v>
       </c>
       <c r="M10">
-        <v>30.23828063117827</v>
+        <v>7.340739605509805</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>30.17351003331446</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11.3585997935171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>10.81975350494342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.327512186248231</v>
+        <v>6.379509321427294</v>
       </c>
       <c r="D11">
-        <v>6.359265371668592</v>
+        <v>6.640100870021313</v>
       </c>
       <c r="E11">
-        <v>28.13198332435541</v>
+        <v>28.01803743322184</v>
       </c>
       <c r="F11">
-        <v>14.7840772016039</v>
+        <v>13.81529055425411</v>
       </c>
       <c r="G11">
-        <v>16.06470336349797</v>
+        <v>16.01754913762325</v>
       </c>
       <c r="H11">
-        <v>4.326069570052977</v>
+        <v>4.263178361675432</v>
       </c>
       <c r="I11">
-        <v>4.643449541007731</v>
+        <v>4.460296708086149</v>
       </c>
       <c r="J11">
-        <v>6.847385791927313</v>
+        <v>6.929186426426695</v>
       </c>
       <c r="K11">
-        <v>11.81821367347773</v>
+        <v>11.00171745558261</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.12608579816102</v>
       </c>
       <c r="M11">
-        <v>31.22144135457105</v>
+        <v>6.969286634508537</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>31.15213070837846</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10.59075926132391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>9.989993274172484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.549462842615712</v>
+        <v>6.668725521381259</v>
       </c>
       <c r="D12">
-        <v>6.618954430087792</v>
+        <v>6.910824243044343</v>
       </c>
       <c r="E12">
-        <v>22.16532720978475</v>
+        <v>22.04004104570492</v>
       </c>
       <c r="F12">
-        <v>14.0211619614688</v>
+        <v>13.03189839929885</v>
       </c>
       <c r="G12">
-        <v>14.62965812732276</v>
+        <v>15.10828671472352</v>
       </c>
       <c r="H12">
-        <v>5.16903467113999</v>
+        <v>5.1178514052889</v>
       </c>
       <c r="I12">
-        <v>4.65594471306433</v>
+        <v>4.469712388492777</v>
       </c>
       <c r="J12">
-        <v>6.604602852452861</v>
+        <v>6.693715603887767</v>
       </c>
       <c r="K12">
-        <v>11.29756370264977</v>
+        <v>10.5181930140773</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.802432936839622</v>
       </c>
       <c r="M12">
-        <v>31.57673450308203</v>
+        <v>6.599482847481021</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>31.50661256102367</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9.974800945790498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>9.396337404808563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.675006742169939</v>
+        <v>6.861399701625466</v>
       </c>
       <c r="D13">
-        <v>6.792478630660108</v>
+        <v>7.067770925574587</v>
       </c>
       <c r="E13">
-        <v>16.21627754231628</v>
+        <v>16.07578887172555</v>
       </c>
       <c r="F13">
-        <v>13.19770356852037</v>
+        <v>12.30895220473484</v>
       </c>
       <c r="G13">
-        <v>13.15803081501276</v>
+        <v>13.59068712154416</v>
       </c>
       <c r="H13">
-        <v>6.222034347914873</v>
+        <v>6.182721690653454</v>
       </c>
       <c r="I13">
-        <v>4.620088559887961</v>
+        <v>4.439461100328989</v>
       </c>
       <c r="J13">
-        <v>6.405747213697404</v>
+        <v>6.6354469795426</v>
       </c>
       <c r="K13">
-        <v>10.7841708439893</v>
+        <v>10.12116595480566</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.584158869839447</v>
       </c>
       <c r="M13">
-        <v>31.48168233377615</v>
+        <v>6.189179362232939</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>31.41395142415894</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9.414840705045346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>8.945013525770889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.711918050257875</v>
+        <v>6.947579140311857</v>
       </c>
       <c r="D14">
-        <v>6.878338319355083</v>
+        <v>7.129355748927107</v>
       </c>
       <c r="E14">
-        <v>12.10841380192131</v>
+        <v>11.94877092989931</v>
       </c>
       <c r="F14">
-        <v>12.58411361810544</v>
+        <v>11.81952485483067</v>
       </c>
       <c r="G14">
-        <v>12.09737274451159</v>
+        <v>12.24563504853499</v>
       </c>
       <c r="H14">
-        <v>7.039918541407592</v>
+        <v>7.007765052547368</v>
       </c>
       <c r="I14">
-        <v>4.574125664990915</v>
+        <v>4.401496245741054</v>
       </c>
       <c r="J14">
-        <v>6.287732636852573</v>
+        <v>6.649243506890458</v>
       </c>
       <c r="K14">
-        <v>10.42348877700032</v>
+        <v>9.87542919314061</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.470313202039701</v>
       </c>
       <c r="M14">
-        <v>31.21044263721959</v>
+        <v>5.87683924352727</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>31.14576728328884</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9.051231712725786</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>8.691263979439888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.685684096479569</v>
+        <v>6.934423775995148</v>
       </c>
       <c r="D15">
-        <v>6.882919962394676</v>
+        <v>7.122504547292401</v>
       </c>
       <c r="E15">
-        <v>11.11979285443817</v>
+        <v>10.9548656081572</v>
       </c>
       <c r="F15">
-        <v>12.41550678030319</v>
+        <v>11.7042295798125</v>
       </c>
       <c r="G15">
-        <v>11.8208392404332</v>
+        <v>11.79480183271781</v>
       </c>
       <c r="H15">
-        <v>7.228384135417542</v>
+        <v>7.19811203972885</v>
       </c>
       <c r="I15">
-        <v>4.552195887568668</v>
+        <v>4.383856597161277</v>
       </c>
       <c r="J15">
-        <v>6.267116699340793</v>
+        <v>6.675831189986034</v>
       </c>
       <c r="K15">
-        <v>10.33041875906923</v>
+        <v>9.824888012200491</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.456158056870601</v>
       </c>
       <c r="M15">
-        <v>31.04643800648673</v>
+        <v>5.78515139979749</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>30.98321797442866</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8.971766320210341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>8.652232489899877</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.448649429540061</v>
+        <v>6.699550959259525</v>
       </c>
       <c r="D16">
-        <v>6.699173377941644</v>
+        <v>6.89262627540418</v>
       </c>
       <c r="E16">
-        <v>11.02226994458956</v>
+        <v>10.87444666715508</v>
       </c>
       <c r="F16">
-        <v>12.34099480135919</v>
+        <v>11.81830017984611</v>
       </c>
       <c r="G16">
-        <v>11.83118587386347</v>
+        <v>10.9667139855878</v>
       </c>
       <c r="H16">
-        <v>6.954906453135587</v>
+        <v>6.92796334965402</v>
       </c>
       <c r="I16">
-        <v>4.441272687124237</v>
+        <v>4.291916738546194</v>
       </c>
       <c r="J16">
-        <v>6.360657103450803</v>
+        <v>6.924766025703794</v>
       </c>
       <c r="K16">
-        <v>10.3668271095255</v>
+        <v>9.975298504035008</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.62281139818141</v>
       </c>
       <c r="M16">
-        <v>30.10106321509386</v>
+        <v>5.70866339069403</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>30.04446147015645</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9.106683184533518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>8.896430505966352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.239695702163409</v>
+        <v>6.470500827970153</v>
       </c>
       <c r="D17">
-        <v>6.507936120700522</v>
+        <v>6.684065181247744</v>
       </c>
       <c r="E17">
-        <v>13.17281524631992</v>
+        <v>13.04909243002854</v>
       </c>
       <c r="F17">
-        <v>12.61892984733691</v>
+        <v>12.15475029262295</v>
       </c>
       <c r="G17">
-        <v>12.41346382678893</v>
+        <v>11.18402204118837</v>
       </c>
       <c r="H17">
-        <v>6.260364886314583</v>
+        <v>6.232647322555718</v>
       </c>
       <c r="I17">
-        <v>4.379931252618039</v>
+        <v>4.24061449710731</v>
       </c>
       <c r="J17">
-        <v>6.493268306918119</v>
+        <v>7.117984771912752</v>
       </c>
       <c r="K17">
-        <v>10.58615758008744</v>
+        <v>10.21251381870549</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.814409654615842</v>
       </c>
       <c r="M17">
-        <v>29.510514181468</v>
+        <v>5.808438979097121</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>29.45713480710271</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9.398677451925943</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>9.207663057653724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.068224994505902</v>
+        <v>6.248369575049743</v>
       </c>
       <c r="D18">
-        <v>6.286391974153968</v>
+        <v>6.461743046346298</v>
       </c>
       <c r="E18">
-        <v>17.7784306637311</v>
+        <v>17.67603968987101</v>
       </c>
       <c r="F18">
-        <v>13.24089825732863</v>
+        <v>12.75898489872268</v>
       </c>
       <c r="G18">
-        <v>13.57429131093477</v>
+        <v>12.15027507096023</v>
       </c>
       <c r="H18">
-        <v>5.208180584817662</v>
+        <v>5.174932451221286</v>
       </c>
       <c r="I18">
-        <v>4.356460214591163</v>
+        <v>4.219718905262847</v>
       </c>
       <c r="J18">
-        <v>6.680201122003226</v>
+        <v>7.308834443483982</v>
       </c>
       <c r="K18">
-        <v>11.00479619591004</v>
+        <v>10.58467766817925</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.07432600947172</v>
       </c>
       <c r="M18">
-        <v>29.17354147911099</v>
+        <v>6.093114097207619</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>29.12098805222632</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9.873039623156336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>9.646207354838737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.883302105763768</v>
+        <v>5.998537682177696</v>
       </c>
       <c r="D19">
-        <v>6.069775907802619</v>
+        <v>6.254371963201725</v>
       </c>
       <c r="E19">
-        <v>24.07579727004067</v>
+        <v>23.98434468226315</v>
       </c>
       <c r="F19">
-        <v>14.04575501337041</v>
+        <v>13.50111368573867</v>
       </c>
       <c r="G19">
-        <v>15.03973248773817</v>
+        <v>13.49677059733537</v>
       </c>
       <c r="H19">
-        <v>4.196743357111412</v>
+        <v>4.152386501517475</v>
       </c>
       <c r="I19">
-        <v>4.373013110475121</v>
+        <v>4.234398992758385</v>
       </c>
       <c r="J19">
-        <v>6.892052468656654</v>
+        <v>7.491758486557217</v>
       </c>
       <c r="K19">
-        <v>11.51334202579896</v>
+        <v>11.00951792340312</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.35399536312971</v>
       </c>
       <c r="M19">
-        <v>29.0719695335752</v>
+        <v>6.47106546013744</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>29.01824366585266</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10.44336729592838</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>10.14891414412824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.794533976088058</v>
+        <v>5.801839795745635</v>
       </c>
       <c r="D20">
-        <v>5.865139076709283</v>
+        <v>6.084699483180813</v>
       </c>
       <c r="E20">
-        <v>34.20573810793852</v>
+        <v>34.11141932066446</v>
       </c>
       <c r="F20">
-        <v>15.39486581345722</v>
+        <v>14.66572108130946</v>
       </c>
       <c r="G20">
-        <v>17.41084731804806</v>
+        <v>15.94885179760407</v>
       </c>
       <c r="H20">
-        <v>3.849204445261019</v>
+        <v>3.786888583263619</v>
       </c>
       <c r="I20">
-        <v>4.495116076523318</v>
+        <v>4.338583729660559</v>
       </c>
       <c r="J20">
-        <v>7.186193471118144</v>
+        <v>7.632650455173827</v>
       </c>
       <c r="K20">
-        <v>12.33065258029539</v>
+        <v>11.63223793470626</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.69641316762557</v>
       </c>
       <c r="M20">
-        <v>29.6373225265082</v>
+        <v>7.172603401474641</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>29.5767824743563</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11.31380648867992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>10.854312654596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.148054592293647</v>
+        <v>6.13477233286642</v>
       </c>
       <c r="D21">
-        <v>6.111851639998719</v>
+        <v>6.425319234592049</v>
       </c>
       <c r="E21">
-        <v>36.97934434448794</v>
+        <v>36.86293022041644</v>
       </c>
       <c r="F21">
-        <v>15.95489037369283</v>
+        <v>14.80313763534538</v>
       </c>
       <c r="G21">
-        <v>18.17222897199641</v>
+        <v>18.43504863542136</v>
       </c>
       <c r="H21">
-        <v>4.168048021661331</v>
+        <v>4.09038888326045</v>
       </c>
       <c r="I21">
-        <v>4.715787004211185</v>
+        <v>4.521476513159919</v>
       </c>
       <c r="J21">
-        <v>7.152370359247909</v>
+        <v>6.973339890008552</v>
       </c>
       <c r="K21">
-        <v>12.56090368825686</v>
+        <v>11.5564151070778</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.4492175352192</v>
       </c>
       <c r="M21">
-        <v>31.36346190570471</v>
+        <v>7.520356965491374</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>31.28891269204873</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11.43266856455655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10.65494260245782</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.414114010599748</v>
+        <v>6.393448432826627</v>
       </c>
       <c r="D22">
-        <v>6.274949542977063</v>
+        <v>6.650908380870513</v>
       </c>
       <c r="E22">
-        <v>38.28468272342963</v>
+        <v>38.15407609585662</v>
       </c>
       <c r="F22">
-        <v>16.29890177025186</v>
+        <v>14.85987508321814</v>
       </c>
       <c r="G22">
-        <v>18.63048064741279</v>
+        <v>20.11873003676478</v>
       </c>
       <c r="H22">
-        <v>4.354780405884096</v>
+        <v>4.267478841544295</v>
       </c>
       <c r="I22">
-        <v>4.85357934055965</v>
+        <v>4.634426718224318</v>
       </c>
       <c r="J22">
-        <v>7.128190748429578</v>
+        <v>6.601777057285677</v>
       </c>
       <c r="K22">
-        <v>12.71092353313037</v>
+        <v>11.49650921281571</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.28199808474441</v>
       </c>
       <c r="M22">
-        <v>32.44210426517611</v>
+        <v>7.74300360512385</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>32.35870606833527</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11.50212175809514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>10.50138682595074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.310086845709135</v>
+        <v>6.27999084821093</v>
       </c>
       <c r="D23">
-        <v>6.182960688109565</v>
+        <v>6.518393536263173</v>
       </c>
       <c r="E23">
-        <v>37.5936854249464</v>
+        <v>37.47125529763415</v>
       </c>
       <c r="F23">
-        <v>16.13987076902121</v>
+        <v>14.88658441211792</v>
       </c>
       <c r="G23">
-        <v>18.43008012193704</v>
+        <v>19.05879048141621</v>
       </c>
       <c r="H23">
-        <v>4.255921104136394</v>
+        <v>4.174174646674603</v>
       </c>
       <c r="I23">
-        <v>4.77922238331184</v>
+        <v>4.57286798588354</v>
       </c>
       <c r="J23">
-        <v>7.148114492836226</v>
+        <v>6.843623150686022</v>
       </c>
       <c r="K23">
-        <v>12.65879362669446</v>
+        <v>11.57439634390925</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.39855711877822</v>
       </c>
       <c r="M23">
-        <v>31.87127768906207</v>
+        <v>7.665673076109357</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>31.79298362143388</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11.48335649584761</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>10.62550803801327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.834766106009782</v>
+        <v>5.829847233986374</v>
       </c>
       <c r="D24">
-        <v>5.830802671868044</v>
+        <v>6.05077994678239</v>
       </c>
       <c r="E24">
-        <v>34.86639022012474</v>
+        <v>34.77208431971481</v>
       </c>
       <c r="F24">
-        <v>15.51758040131162</v>
+        <v>14.78298169224511</v>
       </c>
       <c r="G24">
-        <v>17.63797846663429</v>
+        <v>16.15138939204984</v>
       </c>
       <c r="H24">
-        <v>3.873687399606372</v>
+        <v>3.811142375396222</v>
       </c>
       <c r="I24">
-        <v>4.494421618967785</v>
+        <v>4.335889840364385</v>
       </c>
       <c r="J24">
-        <v>7.222822364524387</v>
+        <v>7.66793188761523</v>
       </c>
       <c r="K24">
-        <v>12.43044096313081</v>
+        <v>11.72114164031295</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.75656546530788</v>
       </c>
       <c r="M24">
-        <v>29.6119333762933</v>
+        <v>7.247599433750867</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>29.55120998935167</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11.40892175989832</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>10.9419901889935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.274462132296968</v>
+        <v>5.404926403354997</v>
       </c>
       <c r="D25">
-        <v>5.424438608123034</v>
+        <v>5.598132870295822</v>
       </c>
       <c r="E25">
-        <v>31.68907776130226</v>
+        <v>31.61624631455717</v>
       </c>
       <c r="F25">
-        <v>14.89266650580529</v>
+        <v>14.3477183750018</v>
       </c>
       <c r="G25">
-        <v>16.87130855885937</v>
+        <v>15.38512679274334</v>
       </c>
       <c r="H25">
-        <v>3.445383364069168</v>
+        <v>3.397741645204982</v>
       </c>
       <c r="I25">
-        <v>4.177131513387398</v>
+        <v>4.062280583741843</v>
       </c>
       <c r="J25">
-        <v>7.325834431180588</v>
+        <v>7.836605415440802</v>
       </c>
       <c r="K25">
-        <v>12.21628674271649</v>
+        <v>11.67906948313312</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.01435293289481</v>
       </c>
       <c r="M25">
-        <v>26.9671738897709</v>
+        <v>6.647649946422544</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>26.91979375307405</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11.38455958501155</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.05396859074981</v>
       </c>
     </row>
   </sheetData>
